--- a/biology/Zoologie/Amadine_à_tête_rouge/Amadine_à_tête_rouge.xlsx
+++ b/biology/Zoologie/Amadine_à_tête_rouge/Amadine_à_tête_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amadine_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Amadine_à_tête_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amadina erythrocephala
 L'Amadine à tête rouge (Amadina erythrocephala) est une espèce de passereau estrildidé d’Afrique australe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amadine_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Amadine_à_tête_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 13 cm de longueur. Il ressemble beaucoup à l'Amadine cou-coupé mais le mâle a la tête entièrement rouge et la femelle gris brun. Celle-ci a aussi le ventre brun plus clair que celui du mâle. Chez les deux sexes, les yeux sont marron, le bec corne clair et les pattes rose chair.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amadine_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Amadine_à_tête_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Afrique du Sud, en Angola, en Namibie, en Zambie et au Zimbabwe.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amadine_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Amadine_à_tête_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les milieux ouverts en particulier la brousse et le veld épineux.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amadine_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Amadine_à_tête_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau niche dans les cavités d'arbres, dans des nids d'oiseaux tels ceux du républicain social[1], dans des nids abandonnés de tisserins ou de moineaux ou dans des bâtiments.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau niche dans les cavités d'arbres, dans des nids d'oiseaux tels ceux du républicain social, dans des nids abandonnés de tisserins ou de moineaux ou dans des bâtiments.
 </t>
         </is>
       </c>
